--- a/ES2N-Requisitos Funcionais v5.0.xlsx
+++ b/ES2N-Requisitos Funcionais v5.0.xlsx
@@ -1,196 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27612"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27568E0F-5D7A-42ED-A2C5-19F83969AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+  <si>
+    <t>LISTA DE REQUISITOS FUNCIONAIS</t>
+  </si>
+  <si>
+    <t>GRUPO: G6</t>
+  </si>
+  <si>
+    <t>DATA: 17/04/2024</t>
+  </si>
+  <si>
+    <t>** Prioridade: Alta (Muito Importante), Média (Importante), Baixa (Não tão importante)</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Prioridade (Alta, Média, Baixa)</t>
+  </si>
+  <si>
+    <t>Requisito(s) que é (são) executado(s) ou pode(m) ser executado(s) na sequência</t>
+  </si>
+  <si>
+    <t>RF01</t>
+  </si>
+  <si>
+    <t>Gerenciar Medicamentos</t>
+  </si>
+  <si>
+    <t>Este requisito permite que os usuários gerenciem suas informações relacionadas a medicamentos. Isso inclui a capacidade de adicionar novos medicamentos ao sistema, editar detalhes existentes (como nome, dosagem, fabricante, etc.) e excluir medicamentos que não são mais necessários. Os usuários podem manter um registro atualizado de sua lista de medicamentos, facilitando a gestão eficaz de sua saúde.</t>
+  </si>
+  <si>
     <t>Alta</t>
   </si>
   <si>
+    <t>Pode executar Configuração de Lembretes (RF02)</t>
+  </si>
+  <si>
+    <t>RF02</t>
+  </si>
+  <si>
+    <t>Configurar Lembrete</t>
+  </si>
+  <si>
+    <t>Os usuários podem configurar lembretes personalizados para cada medicamento que tomam. Isso inclui definir horários específicos para tomar cada medicamento, com opções de repetição ajustáveis conforme as necessidades individuais de cada usuário, conforme orientado pelo médico.</t>
+  </si>
+  <si>
+    <t>RF03</t>
+  </si>
+  <si>
+    <t>Registro Diário</t>
+  </si>
+  <si>
+    <t>Este requisito permite que os usuários registrem cada vez que tomam um medicamento. Eles podem marcar a data e hora em que tomaram o medicamento específico, fornecendo um registro detalhado do uso de medicamentos ao longo do tempo.</t>
+  </si>
+  <si>
+    <t>Adição de Notas (RF04)</t>
+  </si>
+  <si>
+    <t>RF04</t>
+  </si>
+  <si>
+    <t>Adicionar Notas</t>
+  </si>
+  <si>
+    <t>Além de registrar a ingestão de medicamentos, os usuários podem adicionar notas ou comentários sobre cada registro diário. Isso pode incluir informações sobre reações, efeitos colaterais ou qualquer outra observação relevante relacionada ao uso do medicamento.</t>
+  </si>
+  <si>
     <t>Média</t>
   </si>
   <si>
-    <t>Requisito(s) que é (são) executado(s) ou pode(m) ser executado(s) na sequência</t>
-  </si>
-  <si>
-    <t>Registro Diário</t>
-  </si>
-  <si>
-    <t>LISTA DE REQUISITOS FUNCIONAIS</t>
-  </si>
-  <si>
-    <t>GRUPO: G6</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Prioridade (Alta, Média, Baixa)</t>
-  </si>
-  <si>
-    <t>RF01</t>
-  </si>
-  <si>
-    <t>RF02</t>
-  </si>
-  <si>
-    <t>RF03</t>
-  </si>
-  <si>
-    <t>RF04</t>
-  </si>
-  <si>
     <t>RF05</t>
   </si>
   <si>
     <t>Fazer Logout</t>
   </si>
   <si>
+    <t>Os usuários têm a capacidade de fazer logout do sistema quando desejarem encerrar sua sessão. Isso garante a segurança de sua conta, evitando o acesso não autorizado por parte de terceiros.</t>
+  </si>
+  <si>
     <t>RF06</t>
   </si>
   <si>
     <t>Recuperar Senha</t>
   </si>
   <si>
+    <t>No caso de esquecimento ou perda da senha, os usuários podem utilizar este recurso para recuperar o acesso à sua conta. Um processo seguro de recuperação de senha é fornecido para garantir que apenas o usuário legítimo possa redefinir sua senha.</t>
+  </si>
+  <si>
     <t>RF07</t>
   </si>
   <si>
+    <t>Gerenciar Usuário</t>
+  </si>
+  <si>
+    <t>Os usuários têm controle total sobre sua conta no sistema. Eles podem se cadastrar, atualizar suas informações (como nome, email, senha etc.) e excluir sua conta, se necessário. Este recurso fornece flexibilidade e autonomia aos usuários sobre sua própria conta.</t>
+  </si>
+  <si>
+    <t>Pode executar RF14.</t>
+  </si>
+  <si>
     <t>RF08</t>
   </si>
   <si>
+    <t>Visualizar Histórico</t>
+  </si>
+  <si>
+    <t>Os usuários podem acessar um histórico completo e detalhado de seu uso de medicamentos ao longo do tempo. Este histórico permite uma análise de longo prazo do cumprimento do tratamento, facilitando a identificação de padrões e tendências no uso de medicamentos.</t>
+  </si>
+  <si>
     <t>RF09</t>
   </si>
   <si>
+    <t>Alertar Usuário</t>
+  </si>
+  <si>
+    <t>O sistema é capaz de alertar os usuários em tempo real sobre doses perdidas ou atrasadas. Estes alertas destacam a importância da adesão ao tratamento prescrito, ajudando os usuários a manterem-se diligentemente em seus regimes de medicamentos.</t>
+  </si>
+  <si>
     <t>RF10</t>
   </si>
   <si>
+    <t>Gerar Relatório</t>
+  </si>
+  <si>
+    <t>Os usuários têm a capacidade de gerar relatórios personalizados sobre seu uso de medicamentos. Estes relatórios podem incluir informações detalhadas sobre a ingestão de medicamentos, padrões de uso, efeitos colaterais relatados, entre outros dados relevantes.</t>
+  </si>
+  <si>
     <t>RF11</t>
   </si>
   <si>
-    <t>** Prioridade: Alta (Muito Importante), Média (Importante), Baixa (Não tão importante)</t>
-  </si>
-  <si>
-    <t>Adição de Notas (RF04)</t>
-  </si>
-  <si>
-    <t>Gerenciar Medicamento</t>
-  </si>
-  <si>
-    <t>Configurar Lembrete</t>
-  </si>
-  <si>
-    <t>Adicionar Notas</t>
+    <t>Configurar Paciente</t>
+  </si>
+  <si>
+    <t>Além de gerenciar seus próprios medicamentos, os usuários podem cadastrar informações de pacientes adicionais para os quais estão cuidando. Isso permite um controle centralizado e eficiente dos medicamentos de múltiplos pacientes.</t>
+  </si>
+  <si>
+    <t>RF12</t>
   </si>
   <si>
     <t>Fazer Login</t>
   </si>
   <si>
-    <t>Gerenciar Usuario</t>
-  </si>
-  <si>
-    <t>Visualizar Histórico</t>
-  </si>
-  <si>
-    <t>Alertar Usuario</t>
-  </si>
-  <si>
-    <t>Gerar Relatório</t>
+    <t>Os usuários devem autenticar-se no sistema para acessar suas funcionalidades. Este requisito permite o acesso seguro e protegido ao aplicativo, garantindo que apenas usuários autorizados possam interagir com suas informações pessoais e de saúde.</t>
+  </si>
+  <si>
+    <t>Pode executar RF06</t>
+  </si>
+  <si>
+    <t>RF13</t>
   </si>
   <si>
     <t>Gerenciar Estoque</t>
   </si>
   <si>
-    <t>Pode executar RF06</t>
-  </si>
-  <si>
-    <t>RF12</t>
-  </si>
-  <si>
-    <t>RF13</t>
+    <t>O sistema oferece a capacidade opcional de gerenciar o estoque de medicamentos dos usuários. Os usuários podem adicionar, remover e monitorar o estoque de medicamentos, garantindo que nunca fiquem sem os medicamentos necessários.</t>
   </si>
   <si>
     <t>RF14</t>
   </si>
   <si>
-    <t>Pode executar Configuração de Lembretes (RF02)</t>
-  </si>
-  <si>
-    <t>Pode executar RF14.</t>
-  </si>
-  <si>
-    <t>Configurar Paciente</t>
-  </si>
-  <si>
-    <t>DATA: 10/04/2024</t>
-  </si>
-  <si>
-    <t>Este requisito permite que os usuários gerenciem suas informações relacionadas a medicamentos. Isso inclui a capacidade de adicionar novos medicamentos ao sistema, editar detalhes existentes (como nome, dosagem, fabricante, etc.) e excluir medicamentos que não são mais necessários. Os usuários podem manter um registro atualizado de sua lista de medicamentos, facilitando a gestão eficaz de sua saúde.</t>
-  </si>
-  <si>
-    <t>Os usuários podem configurar lembretes personalizados para cada medicamento que tomam. Isso inclui definir horários específicos para tomar cada medicamento, com opções de repetição ajustáveis conforme as necessidades individuais de cada usuário, conforme orientado pelo médico.</t>
-  </si>
-  <si>
-    <t>Este requisito permite que os usuários registrem cada vez que tomam um medicamento. Eles podem marcar a data e hora em que tomaram o medicamento específico, fornecendo um registro detalhado do uso de medicamentos ao longo do tempo.</t>
-  </si>
-  <si>
-    <t>Além de registrar a ingestão de medicamentos, os usuários podem adicionar notas ou comentários sobre cada registro diário. Isso pode incluir informações sobre reações, efeitos colaterais ou qualquer outra observação relevante relacionada ao uso do medicamento.</t>
-  </si>
-  <si>
-    <t>Os usuários têm a capacidade de fazer logout do sistema quando desejarem encerrar sua sessão. Isso garante a segurança de sua conta, evitando o acesso não autorizado por parte de terceiros.</t>
-  </si>
-  <si>
-    <t>No caso de esquecimento ou perda da senha, os usuários podem utilizar este recurso para recuperar o acesso à sua conta. Um processo seguro de recuperação de senha é fornecido para garantir que apenas o usuário legítimo possa redefinir sua senha.</t>
-  </si>
-  <si>
-    <t>Os usuários têm controle total sobre sua conta no sistema. Eles podem se cadastrar, atualizar suas informações (como nome, email, senha etc.) e excluir sua conta, se necessário. Este recurso fornece flexibilidade e autonomia aos usuários sobre sua própria conta.</t>
-  </si>
-  <si>
-    <t>Os usuários podem acessar um histórico completo e detalhado de seu uso de medicamentos ao longo do tempo. Este histórico permite uma análise de longo prazo do cumprimento do tratamento, facilitando a identificação de padrões e tendências no uso de medicamentos.</t>
-  </si>
-  <si>
-    <t>O sistema é capaz de alertar os usuários em tempo real sobre doses perdidas ou atrasadas. Estes alertas destacam a importância da adesão ao tratamento prescrito, ajudando os usuários a manterem-se diligentemente em seus regimes de medicamentos.</t>
-  </si>
-  <si>
-    <t>Os usuários têm a capacidade de gerar relatórios personalizados sobre seu uso de medicamentos. Estes relatórios podem incluir informações detalhadas sobre a ingestão de medicamentos, padrões de uso, efeitos colaterais relatados, entre outros dados relevantes.</t>
-  </si>
-  <si>
-    <t>Além de gerenciar seus próprios medicamentos, os usuários podem cadastrar informações de pacientes adicionais para os quais estão cuidando. Isso permite um controle centralizado e eficiente dos medicamentos de múltiplos pacientes.</t>
-  </si>
-  <si>
-    <t>Os usuários devem autenticar-se no sistema para acessar suas funcionalidades. Este requisito permite o acesso seguro e protegido ao aplicativo, garantindo que apenas usuários autorizados possam interagir com suas informações pessoais e de saúde.</t>
-  </si>
-  <si>
-    <t>O sistema oferece a capacidade opcional de gerenciar o estoque de medicamentos dos usuários. Os usuários podem adicionar, remover e monitorar o estoque de medicamentos, garantindo que nunca fiquem sem os medicamentos necessários.</t>
-  </si>
-  <si>
     <t>Gerenciar Pacientes</t>
   </si>
   <si>
@@ -198,13 +210,31 @@
   </si>
   <si>
     <t>Pode executar RF01, RF03, RF08</t>
+  </si>
+  <si>
+    <t>RF15</t>
+  </si>
+  <si>
+    <t>Contatar Suporte</t>
+  </si>
+  <si>
+    <t>Os usuários têm a capacidade de contatar o suporte técnico para relatar problemas ou obter assistência. Isso pode incluir problemas técnicos com o aplicativo, dúvidas sobre o uso de recursos ou qualquer outra questão relacionada à funcionalidade do sistema. O sistema deve oferecer uma variedade de métodos de contato, como e-mail, chat ao vivo ou formulário de contato, para atender às preferências dos usuários. Após o envio da mensagem, o sistema deve encaminhar a solicitação para a equipe de suporte responsável para análise e resposta.</t>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <t>Responder Suporte</t>
+  </si>
+  <si>
+    <t>A equipe de suporte pode responder às mensagens e solicitações dos usuários enviadas através do sistema. Isso inclui a leitura atenta das mensagens recebidas dos usuários, compreendendo totalmente os problemas ou perguntas apresentadas. A equipe de suporte deve ser capaz de fornecer respostas claras e úteis para resolver os problemas dos usuários ou fornecer a assistência necessária. Se necessário, as solicitações podem ser encaminhadas para membros específicos da equipe para análise adicional ou resolução de problemas mais complexos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +282,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -429,19 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -450,19 +472,6 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -551,21 +560,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -573,41 +610,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,14 +925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
@@ -940,503 +942,519 @@
     <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="15"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="54.75" thickBot="1">
       <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="125.25">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90.75" thickBot="1">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="73.5" customHeight="1" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90.75" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="89.25">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="89.25">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="89.25">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" ht="89.25">
+      <c r="A19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="D19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="74.25" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="90.75" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="102.75" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="26" customFormat="1" ht="178.5">
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" s="26" customFormat="1" ht="178.5">
+      <c r="A25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="23.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="23.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="23.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="23.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="23.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="23.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="23.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="23.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="23.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="23.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="23.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="23.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="23.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="23.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="23.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="23.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="1"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="23.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="1"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="23.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="1"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="23.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="23.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="23.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="23.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="23.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="23.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="23.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="23.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="23.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -1568,6 +1586,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1576,41 +1600,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA81BEE-8313-4EEE-B3B2-304B3C46AFBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA81BEE-8313-4EEE-B3B2-304B3C46AFBA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}"/>
 </file>